--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.0464313623348753</t>
+    <t>-5.25</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.22062995858676704</t>
+    <t>0.9</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.9535686376651246</t>
-  </si>
-  <si>
-    <t>0.6460048307718608</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 0.020088722990398544y</t>
-  </si>
-  <si>
-    <t>-0.9880578578179898</t>
+    <t>-1 + 15.487240540350129y</t>
+  </si>
+  <si>
+    <t>50.10789378315543</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.26285038252815807</t>
-  </si>
-  <si>
-    <t>0.870197286557129</t>
-  </si>
-  <si>
-    <t>0.013671260961592982</t>
-  </si>
-  <si>
-    <t>-1 + 0.3194559470939422y</t>
-  </si>
-  <si>
-    <t>-0.8100930386213225</t>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>-1 + 0.670696662409771y</t>
+  </si>
+  <si>
+    <t>1.2132989859522443</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7476228142365086</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.07513603931204704</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>7.6</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.04643136233487543</t>
-  </si>
-  <si>
-    <t>0.5944699515105025</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.6090736334816313</t>
+    <t>-47.77506938847822</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.7892811565680539</t>
-  </si>
-  <si>
-    <t>-13.333117616530577</t>
+    <t>0.09340202809551146</t>
+  </si>
+  <si>
+    <t>-157.90405262007584</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6805440529060578</v>
+        <v>0.329303337590229</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -87,10 +87,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 15.487240540350129y</t>
-  </si>
-  <si>
-    <t>50.10789378315543</t>
+    <t>-1 + 2.3126160715899395y</t>
+  </si>
+  <si>
+    <t>6.631633036246801</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -99,16 +99,16 @@
     <t>0.23</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>-1 + 0.670696662409771y</t>
-  </si>
-  <si>
-    <t>1.2132989859522443</t>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>-1 + 0.35138390741670333y</t>
+  </si>
+  <si>
+    <t>0.15956689447512118</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
@@ -117,10 +117,10 @@
     <t>0.58</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>7.6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.4</t>
   </si>
   <si>
     <t>x</t>
@@ -138,16 +138,16 @@
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-47.77506938847822</t>
+    <t>-44.5597043627674</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.09340202809551146</t>
-  </si>
-  <si>
-    <t>-157.90405262007584</t>
+    <t>2.2008662110497585</t>
+  </si>
+  <si>
+    <t>-112.43635566709146</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.329303337590229</v>
+        <v>0.6486160925832967</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.25</t>
+    <t>0.8 - x</t>
+  </si>
+  <si>
+    <t>-1.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>0.68</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>-0.8 + x</t>
+  </si>
+  <si>
+    <t>-0.19999999999999996</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,34 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 2.3126160715899395y</t>
-  </si>
-  <si>
-    <t>6.631633036246801</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>-1 + 0.35138390741670333y</t>
-  </si>
-  <si>
-    <t>0.15956689447512118</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>-0.7399999999999999 + 0.3999999999999999y</t>
+  </si>
+  <si>
+    <t>-0.2600000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7.4</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-44.5597043627674</t>
+    <t>-9.78325</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.2008662110497585</t>
-  </si>
-  <si>
-    <t>-112.43635566709146</t>
+    <t>1.1500000000000006</t>
+  </si>
+  <si>
+    <t>-49.161</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -629,27 +623,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +661,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +690,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +713,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +741,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6486160925832967</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>0.8 - x</t>
-  </si>
-  <si>
-    <t>-1.8</t>
+    <t>1.9 - x</t>
+  </si>
+  <si>
+    <t>-2.9</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>-0.8 + x</t>
-  </si>
-  <si>
-    <t>-0.19999999999999996</t>
-  </si>
-  <si>
-    <t>0.96</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>-1.9 + x</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,34 +87,37 @@
     <t>Gamma_value</t>
   </si>
   <si>
+    <t>-0.37951807228915646 + 2.5301204819277103y</t>
+  </si>
+  <si>
+    <t>-0.6204819277108435</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>-0.7399999999999999 + 0.3999999999999999y</t>
-  </si>
-  <si>
-    <t>-0.2600000000000001</t>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>1.1102230246251565e-16y</t>
+  </si>
+  <si>
+    <t>-1.0</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
   </si>
   <si>
     <t>x</t>
@@ -123,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.85</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-9.78325</t>
+    <t>0.5379487951807227</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.1500000000000006</t>
-  </si>
-  <si>
-    <t>-49.161</t>
+    <t>2.347</t>
+  </si>
+  <si>
+    <t>4.225849999999999</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -623,27 +626,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -661,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -690,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -713,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -741,12 +744,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6000000000000001</v>
+        <v>2.4899999999999998</v>
       </c>
     </row>
   </sheetData>
